--- a/biology/Médecine/Claude_Franceschi/Claude_Franceschi.xlsx
+++ b/biology/Médecine/Claude_Franceschi/Claude_Franceschi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Franceschi, né le 12 octobre 1942 à Calenzana, est un médecin angiologue français. Il est considéré comme un pionnier de l’exploration vasculaire ultrasonore Doppler. Ses travaux, reconnus mondialement, apportent une importante contribution à l’hémodynamique, la physiopathologie, le diagnostic et le traitement des maladies des artères, des veines et des lymphatiques.
 Fin des années 1980, il bouleverse la conception de la maladie veineuse par une nouvelle approche hémodynamique. Cette nouvelle vision le conduit à écarter la destruction des veines, et lui permet de concevoir la cure conservatrice et hémodynamique de l’insuffisance veineuse en ambulatoire (CHIVA) Voir Varice.
@@ -515,7 +527,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Franceschi s’inscrit à la Faculté de Médecine de Paris en 1960. Il étudie plus particulièrement la neuropsychiatrie à la Salpêtrière (Paris) avec le Dr Cyril Coupernik, et à Melun avec le Dr Tosquelles. Son intérêt particulier pour la circulation cérébrale l’amène à travailler dans le laboratoire d’exploration fonctionnelle cérébrale du Dr Jaquinot à l’hôpital de la Salpêtrière où il utilise l’une des premières machines ultrasonores à effet Doppler (Delalande Électronique).
 Cependant, les informations fournies par cette méthode non invasive restaient  trop pauvres pour concurrencer des méthodes agressives et dangereuses comme l’artériographie. Claude Franceschi cherche alors à décrypter plus profondément et en détail la signification hémodynamique du signal Doppler émis par les vaisseaux normaux et pathologiques.
@@ -523,7 +537,7 @@
 En 1975, il travaille avec le Pr Jean Michel Cormier, pionnier de la chirurgie vasculaire, à l’Hôpital Henry Dunant puis à l’Hôpital Saint Joseph de Paris. Ce dernier le soutiendra de manière décisive dans ses recherches et sera le premier à reconnaitre et à défendre la valeur diagnostique de leurs résultats. Ces premiers  travaux porteront d’abord plus particulièrement sur les artères carotides puis s’étendront à l’ensemble des vaisseaux.
 Conseiller scientifique de la Société ESAOTE, il participe aux progrès  technologiques et ergonomiques des machines d’Echographie Doppler.
 Par ailleurs, il dépose  des brevets d’invention destinés à améliorer le diagnostic et la prise en charge des patients.
-Il enseigne dès 1978 en France dans le cadre du Diplôme de Pathologie Vasculaire (Université Paris IV puis Paris VII). Il enseigne également dans de nombreux autres pays, notamment en Algérie, Argentine, Chili, Espagne, Italie, Tunisie et USA. Il est invité régulièrement à communiquer dans de nombreux Congrès Internationaux[1] et publie de nombreux livres et articles en France et à l’étranger.
+Il enseigne dès 1978 en France dans le cadre du Diplôme de Pathologie Vasculaire (Université Paris IV puis Paris VII). Il enseigne également dans de nombreux autres pays, notamment en Algérie, Argentine, Chili, Espagne, Italie, Tunisie et USA. Il est invité régulièrement à communiquer dans de nombreux Congrès Internationaux et publie de nombreux livres et articles en France et à l’étranger.
 Il est actuellement consultant au Centre Marie Thérèse (Fondation Hôpital Saint Joseph Paris France) et à la Casa di Cura delle Figlie di San Camillo Cremona (Italie), et enseigne dans le cadre du diplôme d’angiologie et d’écho-doppler vasculaire au CHU Pité-Salpétrière Paris.
 </t>
         </is>
@@ -555,25 +569,98 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Système artériel et veineux
-L'apport majeur de Claude Franceschi a été de mettre en correspondance les principes de la Mécanique des fluides avec l’Hémodynamique artérielle et veineuse, principes décelables par l’analyse des réflexions du signal ultrasonore Doppler émis dans le flux sanguin.
-En 1977, Franceschi publie le tout premier ouvrage mondial sur l’exploration vasculaire Doppler[2] dans lequel il décrit les principes hémodynamiques ainsi que leur traduction en termes de liens avec le signal Doppler. Ces données restent la référence indiscutable pour la quantification des sténoses et la qualité du diagnostic[3]. Parmi ces données, on notera plus particulièrement les critères de sténose artérielle des membres et des carotides, de pré-thrombose carotidienne, l’Indice de Pression-Perfusion dit Indice de Franceschi[4], le Rapport Carotidien, ainsi que l’exploration du Cercle de Willis.
+          <t>Système artériel et veineux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'apport majeur de Claude Franceschi a été de mettre en correspondance les principes de la Mécanique des fluides avec l’Hémodynamique artérielle et veineuse, principes décelables par l’analyse des réflexions du signal ultrasonore Doppler émis dans le flux sanguin.
+En 1977, Franceschi publie le tout premier ouvrage mondial sur l’exploration vasculaire Doppler dans lequel il décrit les principes hémodynamiques ainsi que leur traduction en termes de liens avec le signal Doppler. Ces données restent la référence indiscutable pour la quantification des sténoses et la qualité du diagnostic. Parmi ces données, on notera plus particulièrement les critères de sténose artérielle des membres et des carotides, de pré-thrombose carotidienne, l’Indice de Pression-Perfusion dit Indice de Franceschi, le Rapport Carotidien, ainsi que l’exploration du Cercle de Willis.
 En 1978, il publie les premières observations  de régression de plaques carotidiennes.
-En 1980, il décrit le Rapport de débit de fistule RDF destiné à évaluer le débit des fistules artério-veineuses, notamment chez le dialysé[5].
-En 1981, il invente un procédé d’interface qui permet pour la première fois la visualisation des carotides et autres troncs supra-aortiques  par échographie[6] (Brevet INPI N° : 81 22294).
-En 1986, il publie le premier livre d’échographie vasculaire Précis d'échotomographie vasculaire[7] traduit en Italien "Compendio di ecotomografia vascolare" .
-En 1988, il publie le livre La cure Conservatrice et Hémodynamique de l’Insuffisance Veineuse en Ambulatoire CHIVA[8], où il propose une nouvelle approche de la physiologie de la circulation veineuse profonde et superficielle, introduisant de nouveaux concepts tels que le Fractionnement dynamique de la pression hydrostatique, les shunts veino-veineux et l’Évolutivité vicariante des varices[9],[10]. Ce nouveau concept change depuis radicalement l’approche diagnostique et thérapeutique des varices, des ulcères et des œdèmes d’origine veineuse. Le principe de la technique CHIVA est de laisser les veines en place, y compris les variqueuses, sans les détruire et en les ramenant à des calibres et à des débits normaux. Ce résultat est obtenu grâce à la réduction de la surcharge en débit et pression responsable des varices, œdèmes et ulcères.
-En effet, selon cette théorie, au même titre que les œdèmes et ulcères, les varices ne sont pas la cause de l’insuffisance veineuse, mais seulement la conséquence d’obstacles veineux et/ou d’incontinence des valvules. De plus, la destruction des varices, en faisant obstacle au drainage naturel de la peau, serait responsable de récidives par effet de compensation. La méthode CHIVA supprime la surcharge en débit et pression, ce qui aboutit à la guérison des ulcères et au retour à la normale des veines dilatées, notamment variqueuses. Il s’agit tout simplement de fractionner avec précision la pression hydrostatique gravitationnelle de la colonne veineuse et de réaliser une déconnexion des shunts fermés selon la configuration particulière de chaque patient au moyen de 1 à 5 sections/ligatures réalisées sous simple anesthésie locale et sans hospitalisation (ambulatoire). Autre avantage, les saphènes sont ainsi conservées. En effet, elles constituent le meilleur matériel de pontage des artères obstruées des membres, et peuvent aussi compléter les pontages coronariens[11], d’autant que la population se fait plus vieillissante. La cure CHIVA fait l’objet de plusieurs études randomisées et contrôlées. Elle fait la preuve de ses avantages par rapport aux techniques destructrices de référence habituelles, notamment par l’ablation chirurgicale des saphènes, ou « stripping »[12],[13],[14],[15],[16],[17],[18],[19],[20],[21]
-En 1991, il propose une nouvelle approche physiopathologique de la pathologie hémorroïdaire. Celle-ci innocenterait les veines hémorroïdaires car elles ne seraient que les victimes de ce qu’il appelle le Quatrième Facteur. Ce dernier serait l'agression physique et chimique de la muqueuse du canal anal. Conformément à cette hypothèse, il met au point un traitement préventif et curatif consistant à faciliter l’évacuation des selles, puis à éliminer les résidus du canal anal. Il s’agit d’une douchette externe qui délivre un jet d’eau  capable de pénétrer à distance dans le canal et dans le bas rectum, sans aucun contact avec l’anus. Son efficacité est validée par une étude hospitalière randomisée[22],[23],[24].
+En 1980, il décrit le Rapport de débit de fistule RDF destiné à évaluer le débit des fistules artério-veineuses, notamment chez le dialysé.
+En 1981, il invente un procédé d’interface qui permet pour la première fois la visualisation des carotides et autres troncs supra-aortiques  par échographie (Brevet INPI N° : 81 22294).
+En 1986, il publie le premier livre d’échographie vasculaire Précis d'échotomographie vasculaire traduit en Italien "Compendio di ecotomografia vascolare" .
+En 1988, il publie le livre La cure Conservatrice et Hémodynamique de l’Insuffisance Veineuse en Ambulatoire CHIVA, où il propose une nouvelle approche de la physiologie de la circulation veineuse profonde et superficielle, introduisant de nouveaux concepts tels que le Fractionnement dynamique de la pression hydrostatique, les shunts veino-veineux et l’Évolutivité vicariante des varices,. Ce nouveau concept change depuis radicalement l’approche diagnostique et thérapeutique des varices, des ulcères et des œdèmes d’origine veineuse. Le principe de la technique CHIVA est de laisser les veines en place, y compris les variqueuses, sans les détruire et en les ramenant à des calibres et à des débits normaux. Ce résultat est obtenu grâce à la réduction de la surcharge en débit et pression responsable des varices, œdèmes et ulcères.
+En effet, selon cette théorie, au même titre que les œdèmes et ulcères, les varices ne sont pas la cause de l’insuffisance veineuse, mais seulement la conséquence d’obstacles veineux et/ou d’incontinence des valvules. De plus, la destruction des varices, en faisant obstacle au drainage naturel de la peau, serait responsable de récidives par effet de compensation. La méthode CHIVA supprime la surcharge en débit et pression, ce qui aboutit à la guérison des ulcères et au retour à la normale des veines dilatées, notamment variqueuses. Il s’agit tout simplement de fractionner avec précision la pression hydrostatique gravitationnelle de la colonne veineuse et de réaliser une déconnexion des shunts fermés selon la configuration particulière de chaque patient au moyen de 1 à 5 sections/ligatures réalisées sous simple anesthésie locale et sans hospitalisation (ambulatoire). Autre avantage, les saphènes sont ainsi conservées. En effet, elles constituent le meilleur matériel de pontage des artères obstruées des membres, et peuvent aussi compléter les pontages coronariens, d’autant que la population se fait plus vieillissante. La cure CHIVA fait l’objet de plusieurs études randomisées et contrôlées. Elle fait la preuve de ses avantages par rapport aux techniques destructrices de référence habituelles, notamment par l’ablation chirurgicale des saphènes, ou « stripping »
+En 1991, il propose une nouvelle approche physiopathologique de la pathologie hémorroïdaire. Celle-ci innocenterait les veines hémorroïdaires car elles ne seraient que les victimes de ce qu’il appelle le Quatrième Facteur. Ce dernier serait l'agression physique et chimique de la muqueuse du canal anal. Conformément à cette hypothèse, il met au point un traitement préventif et curatif consistant à faciliter l’évacuation des selles, puis à éliminer les résidus du canal anal. Il s’agit d’une douchette externe qui délivre un jet d’eau  capable de pénétrer à distance dans le canal et dans le bas rectum, sans aucun contact avec l’anus. Son efficacité est validée par une étude hospitalière randomisée.
 En 1994. Il propose une classification hémodynamique des malformations vasculaires. Il conçoit une valve veineuse artificielle mise en place  via un cathéter (Brevet INPI no 94 15391).
-En 1997, Claude Franceschi décrit l'Indice dynamique de reflux veineux IDR ainsi que la Manœuvre de Paranà[25], ainsi que le diagnostic par écho Doppler de la phlébite plantaire[26].
-En 2005, il trouve les points de fuite veineux périnéaux, inguinaux et clitoridiens de la femme par écho Doppler et les définit anatomiquement[27]. Il conçoit un instrument de chirurgie permettant une maîtrise rapide et facile des plaies vasculaires : l’Hemostator de Franceschi[28].
-En 2006, il préconise un mélange vaseline 40 % - sucre 60 % pour nettoyer et aseptiser les plaies, notamment les ulcères des membres inférieurs. Ce composé offre l’avantage de son faible coût, d’une seule application hebdomadaire, et de la dispense de curetage. Les résultats font fortement supposer que ce procédé est équivalent ou même plus efficace que les médications locales les plus récentes. Les premiers résultats sont en cours de publication[29].
-En 2010, il publie le livre Principles of venous hemodynamics qui détaille les concepts hémodynamiques de l’insuffisance veineuse et leurs conséquences diagnostiques et thérapeutiques[30].
-Système lymphatique
-En 2004, il identifie une nouvelle pathologie : l’obstruction intermittente du canal thoracique terminal. Il la diagnostique par écho Doppler chez des patients souffrant de gonflements du cou et d’épanchements de chyle dans le thorax et l’abdomen[31],[32].
-Brevets d’invention
-1981 Dispositif permettant la visualisation des vaisseaux et organes superficiels: "Dispositif pour la transmission d’ultrasons pour une sonde d’echotomographie" (INPI N° d’enregistrement National : 81 22294).
+En 1997, Claude Franceschi décrit l'Indice dynamique de reflux veineux IDR ainsi que la Manœuvre de Paranà, ainsi que le diagnostic par écho Doppler de la phlébite plantaire.
+En 2005, il trouve les points de fuite veineux périnéaux, inguinaux et clitoridiens de la femme par écho Doppler et les définit anatomiquement. Il conçoit un instrument de chirurgie permettant une maîtrise rapide et facile des plaies vasculaires : l’Hemostator de Franceschi.
+En 2006, il préconise un mélange vaseline 40 % - sucre 60 % pour nettoyer et aseptiser les plaies, notamment les ulcères des membres inférieurs. Ce composé offre l’avantage de son faible coût, d’une seule application hebdomadaire, et de la dispense de curetage. Les résultats font fortement supposer que ce procédé est équivalent ou même plus efficace que les médications locales les plus récentes. Les premiers résultats sont en cours de publication.
+En 2010, il publie le livre Principles of venous hemodynamics qui détaille les concepts hémodynamiques de l’insuffisance veineuse et leurs conséquences diagnostiques et thérapeutiques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claude_Franceschi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Franceschi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Système lymphatique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 2004, il identifie une nouvelle pathologie : l’obstruction intermittente du canal thoracique terminal. Il la diagnostique par écho Doppler chez des patients souffrant de gonflements du cou et d’épanchements de chyle dans le thorax et l’abdomen,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claude_Franceschi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Franceschi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Brevets d’invention</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1981 Dispositif permettant la visualisation des vaisseaux et organes superficiels: "Dispositif pour la transmission d’ultrasons pour une sonde d’echotomographie" (INPI N° d’enregistrement National : 81 22294).
 1982 : Cuvette mobile d’échographie pour l'exploration du sein par échographie "Cuvette mobile d’échographie" (INPI N° d’Enregistrement National : 82 16663)
 1983 : Appareil permettant la ponction des vaisseaux guidée par Doppler "Procédé de ponction des vaisseaux sanguins associant un propulseur d’aiguille à un ultrasonographe Doppler qui le guide" (INPI N° d’Enregistrement National83 18794).
 1983 : Filtre placé dans la veine cave inférieure, destiné à la prévention des embolies pulmonaires : "Filtre contre les embolies et son procéeé de mise en place" (INPI N° d’Enregistrement National 83 03315)
